--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_16-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_16-10.xlsx
@@ -74,12 +74,15 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>COLDATREXY 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>CONAZ C 20 F.C. TAB.</t>
   </si>
   <si>
@@ -134,7 +137,10 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -146,6 +152,9 @@
     <t>SENSODERM صابون مرطب</t>
   </si>
   <si>
+    <t>STOPADOL 500MG 20 TABS.</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -159,9 +168,6 @@
   </si>
   <si>
     <t>ايفا سموكر كبير</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t xml:space="preserve">جل دم الغزال </t>
@@ -1030,11 +1036,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1050,17 +1056,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1082,11 +1088,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1094,7 +1100,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1102,17 +1108,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1128,17 +1134,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>133.5</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1160,7 +1166,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>57</v>
+        <v>133.5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1180,13 +1186,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1198,7 +1204,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1206,13 +1212,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1238,7 +1244,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1264,7 +1270,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1290,11 +1296,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1302,7 +1308,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1310,17 +1316,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1328,7 +1334,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1336,17 +1342,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1362,13 +1368,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>71.5</v>
+        <v>120</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1388,17 +1394,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>24</v>
+        <v>71.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1406,7 +1412,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1414,17 +1420,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1440,17 +1446,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1458,7 +1464,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1466,17 +1472,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1484,7 +1490,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1492,17 +1498,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1518,13 +1524,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1550,11 +1556,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1570,17 +1576,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1596,17 +1602,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1614,7 +1620,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1622,13 +1628,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1640,7 +1646,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1648,17 +1654,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1666,7 +1672,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1674,13 +1680,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>44.549999999999997</v>
+        <v>35</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1692,7 +1698,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1700,13 +1706,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1718,7 +1724,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1726,51 +1732,103 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="K41" s="10">
-        <v>2182.8800000000001</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="11">
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
+        <v>62</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
+        <v>57</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>35</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
         <v>63</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c t="s" r="F42" s="12">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
         <v>64</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c t="s" r="I42" s="14">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>30</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c t="s" r="N42" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="K43" s="10">
+        <v>2243.8800000000001</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c t="s" r="A44" s="11">
         <v>65</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c t="s" r="F44" s="12">
+        <v>66</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c t="s" r="I44" s="14">
+        <v>67</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="128">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1889,10 +1947,16 @@
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:N44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
